--- a/biology/Botanique/Eucalyptus_crenulata/Eucalyptus_crenulata.xlsx
+++ b/biology/Botanique/Eucalyptus_crenulata/Eucalyptus_crenulata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eucalyptus crenulata est une espèce d'eucalyptus endémique de la vallée de la rivière Acheron, au Victoria, en Australie.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un petit arbre avec un feuillage dense qui dépasse rarement 8 mètres de hauteur. Il a des feuilles glauques bleu-vert avec des bords crénelés.
 L'espèce est classée comme « menacée » dans l'état de Victoria, en vertu du Flora and Fauna Guarantee Act 1988.
@@ -547,11 +561,13 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Eucalyptus crenulata a, pour la première fois, été décrit en 1939 par William Blakely et Wilfred de Beuzeville d'après un spécimen récolté près de Buxton.
-La description a été publiée dans Contributions from the New South Wales National Herbarium[1].
-L'épithète crenulata est un mot latin signifiant « avec de petites dents arrondies », se référant aux bords des feuilles festonnées[2].
+La description a été publiée dans Contributions from the New South Wales National Herbarium.
+L'épithète crenulata est un mot latin signifiant « avec de petites dents arrondies », se référant aux bords des feuilles festonnées.
 </t>
         </is>
       </c>
